--- a/storage/app/sample.xlsx
+++ b/storage/app/sample.xlsx
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
   <si>
     <t>Bio metric ID</t>
@@ -499,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -510,6 +516,21 @@
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color rgb="FF356854"/>
@@ -659,7 +680,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,34 +692,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,12 +804,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,7 +927,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -1348,12 +1372,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{8F6F296C-32A1-4E46-A90B-038A9B0C3F0C}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{871654A0-0262-482D-A5E2-E3483C89A2B3}">
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="firstRowStripe" dxfId="34"/>
       <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="2" xr9:uid="{16336ACE-8E58-4AB9-B709-EA8DA3D0FC48}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="2" xr9:uid="{7775B28A-8E64-4CFF-B8F9-29DD1721612A}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
@@ -1367,9 +1391,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AG1" headerRowCount="0">
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AI1" headerRowCount="0">
+  <tableColumns count="35">
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="35" name="Column35"/>
     <tableColumn id="2" name="Column2" dataDxfId="1"/>
     <tableColumn id="3" name="Column3" dataDxfId="2"/>
     <tableColumn id="4" name="Column4" dataDxfId="3"/>
@@ -1607,52 +1633,52 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AJ12" sqref="AJ12"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="12.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="30.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="20.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="12.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="21.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="12.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" customWidth="1"/>
-    <col min="12" max="12" width="21.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="20.4285714285714" customWidth="1"/>
-    <col min="14" max="14" width="17.5714285714286" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="18.8571428571429" customWidth="1"/>
-    <col min="17" max="17" width="71.2857142857143" customWidth="1"/>
-    <col min="18" max="18" width="84.8571428571429" customWidth="1"/>
-    <col min="19" max="19" width="34" customWidth="1"/>
-    <col min="20" max="20" width="30.4285714285714" customWidth="1"/>
-    <col min="21" max="21" width="19.1428571428571" customWidth="1"/>
-    <col min="22" max="22" width="29.4285714285714" customWidth="1"/>
-    <col min="23" max="23" width="29.7142857142857" customWidth="1"/>
-    <col min="24" max="24" width="46" customWidth="1"/>
-    <col min="25" max="25" width="44.2857142857143" customWidth="1"/>
-    <col min="26" max="26" width="10.5714285714286" customWidth="1"/>
-    <col min="27" max="27" width="14.7142857142857" customWidth="1"/>
-    <col min="28" max="28" width="26.7142857142857" customWidth="1"/>
-    <col min="29" max="29" width="15.1428571428571" customWidth="1"/>
-    <col min="30" max="30" width="5.85714285714286" customWidth="1"/>
-    <col min="31" max="31" width="39.5714285714286" customWidth="1"/>
-    <col min="32" max="32" width="41.8571428571429" customWidth="1"/>
-    <col min="33" max="33" width="40.5714285714286" customWidth="1"/>
+    <col min="2" max="4" width="12.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="30.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="20.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="12.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="21.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="12.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="21.4285714285714" customWidth="1"/>
+    <col min="14" max="14" width="21.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="20.4285714285714" customWidth="1"/>
+    <col min="16" max="16" width="17.5714285714286" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="18.8571428571429" customWidth="1"/>
+    <col min="19" max="19" width="71.2857142857143" customWidth="1"/>
+    <col min="20" max="20" width="84.8571428571429" customWidth="1"/>
+    <col min="21" max="21" width="34" customWidth="1"/>
+    <col min="22" max="22" width="30.4285714285714" customWidth="1"/>
+    <col min="23" max="23" width="19.1428571428571" customWidth="1"/>
+    <col min="24" max="24" width="29.4285714285714" customWidth="1"/>
+    <col min="25" max="25" width="29.7142857142857" customWidth="1"/>
+    <col min="26" max="26" width="46" customWidth="1"/>
+    <col min="27" max="27" width="44.2857142857143" customWidth="1"/>
+    <col min="28" max="28" width="10.5714285714286" customWidth="1"/>
+    <col min="29" max="29" width="14.7142857142857" customWidth="1"/>
+    <col min="30" max="30" width="26.7142857142857" customWidth="1"/>
+    <col min="31" max="31" width="15.1428571428571" customWidth="1"/>
+    <col min="32" max="32" width="5.85714285714286" customWidth="1"/>
+    <col min="33" max="33" width="39.5714285714286" customWidth="1"/>
+    <col min="34" max="34" width="41.8571428571429" customWidth="1"/>
+    <col min="35" max="35" width="40.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:33">
+    <row r="1" customHeight="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,95 +1688,101 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
